--- a/Rrt_Nawaqis_2025-05-24_00-00.xlsx
+++ b/Rrt_Nawaqis_2025-05-24_00-00.xlsx
@@ -3,14 +3,929 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="0"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>صيدليات دكتور مصطفي طلعت</t>
+  </si>
+  <si>
+    <t>نواقص الأصناف</t>
+  </si>
+  <si>
+    <t>في الفترة من</t>
+  </si>
+  <si>
+    <t>الى</t>
+  </si>
+  <si>
+    <t>م</t>
+  </si>
+  <si>
+    <t>الاسم</t>
+  </si>
+  <si>
+    <t>الرصيد الحالي</t>
+  </si>
+  <si>
+    <t>حد الطلب</t>
+  </si>
+  <si>
+    <t>السعر</t>
+  </si>
+  <si>
+    <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ALWAYS ماكس طويل</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>AMARYL 1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>CALCIMATE 500 MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>CALCISOME-D 60 H.G. CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>CONCOR 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>185.75</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>DAFLON 500MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>D-DEP 10000IU 30CAPS</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>DESA 2.5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>DEXAGLOBE 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>DICYNONE 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>DOXIUM 500MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>FEDESAFOROL DROP</t>
+  </si>
+  <si>
+    <t>44.90</t>
+  </si>
+  <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>GAST-REG 24MG/5ML 125ML SUSP</t>
+  </si>
+  <si>
+    <t>GASTROMOTIL 1MG/ML ORAL SUSP. 200ML</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:22</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 1000/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>MAVILOR 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>MAXDINIR 125MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>MEBEFAC 200 MG SR 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>OLAPEX 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>OPTEST 0.05% EYE DPS. 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>ORCHAZID 0.025% EYE DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>ORCHINOHIST 0.25% EYE DPS. 3 ML</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>SULPEPTA 25MGTAB</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8720:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>ZESTRIL 20MG 10 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخاخ ريد الكبير </t>
+  </si>
+  <si>
+    <t>بيبرونه ALGO كبيره</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>زيت جونسون كبير</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>50:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>شامبو جونسون وسط</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>معجون حلاقه 55555</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>Saturday, 24 May, 2025 10:59 PM</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>developed by : Abdelaziz Talaat</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0.##;&quot;[&quot;#,##0.##&quot;]&quot;;0"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18,19 +933,154 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFC04000"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Mega"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Mega"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0616D"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0616D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0616D"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0616D"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0616D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -39,8 +1089,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,8 +1411,4660 @@
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" rightToLeft="1"/>
   </sheetViews>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.43" customWidth="1"/>
+    <col min="2" max="2" width="20.29" customWidth="1"/>
+    <col min="3" max="3" width="1.57" customWidth="1"/>
+    <col min="4" max="4" width="12.71" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="13.29" customWidth="1"/>
+    <col min="7" max="7" width="0.43" customWidth="1"/>
+    <col min="8" max="8" width="1.14" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="6.71" customWidth="1"/>
+    <col min="11" max="11" width="9.71" customWidth="1"/>
+    <col min="12" max="12" width="10.43" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="7.5" customHeight="1"/>
+    <row r="2" ht="34.5" customHeight="1">
+      <c t="s" r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" ht="35.25" customHeight="1">
+      <c t="s" r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c t="s" r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45801</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c t="s" r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4">
+        <v>45801</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" ht="0.75" customHeight="1"/>
+    <row r="6" ht="25.5" customHeight="1">
+      <c t="s" r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c t="s" r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c t="s" r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c t="s" r="K6" s="6">
+        <v>7</v>
+      </c>
+      <c t="s" r="L6" s="6">
+        <v>8</v>
+      </c>
+      <c t="s" r="M6" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c t="s" r="B7" s="8">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c t="s" r="H7" s="9">
+        <v>11</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c t="s" r="K7" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L7" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M7" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="24.75" customHeight="1">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c t="s" r="B8" s="8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c t="s" r="K8" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L8" s="8">
+        <v>18</v>
+      </c>
+      <c t="s" r="M8" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c t="s" r="B9" s="8">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>14</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c t="s" r="K9" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L9" s="8">
+        <v>20</v>
+      </c>
+      <c t="s" r="M9" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c t="s" r="B10" s="8">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>21</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c t="s" r="K10" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L10" s="8">
+        <v>23</v>
+      </c>
+      <c t="s" r="M10" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c t="s" r="B11" s="8">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>14</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c t="s" r="K11" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L11" s="8">
+        <v>25</v>
+      </c>
+      <c t="s" r="M11" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c t="s" r="B12" s="8">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>27</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c t="s" r="K12" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L12" s="8">
+        <v>28</v>
+      </c>
+      <c t="s" r="M12" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c t="s" r="B13" s="8">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>30</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c t="s" r="K13" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L13" s="8">
+        <v>31</v>
+      </c>
+      <c t="s" r="M13" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c t="s" r="B14" s="8">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>34</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c t="s" r="K14" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L14" s="8">
+        <v>35</v>
+      </c>
+      <c t="s" r="M14" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c t="s" r="B15" s="8">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>27</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c t="s" r="K15" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L15" s="8">
+        <v>37</v>
+      </c>
+      <c t="s" r="M15" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c t="s" r="B16" s="8">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>39</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c t="s" r="K16" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L16" s="8">
+        <v>40</v>
+      </c>
+      <c t="s" r="M16" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c t="s" r="B17" s="8">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>39</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c t="s" r="K17" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L17" s="8">
+        <v>42</v>
+      </c>
+      <c t="s" r="M17" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c t="s" r="B18" s="8">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>45</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c t="s" r="K18" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L18" s="8">
+        <v>46</v>
+      </c>
+      <c t="s" r="M18" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c t="s" r="B19" s="8">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>39</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c t="s" r="K19" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L19" s="8">
+        <v>48</v>
+      </c>
+      <c t="s" r="M19" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c t="s" r="B20" s="8">
+        <v>49</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>39</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c t="s" r="K20" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L20" s="8">
+        <v>50</v>
+      </c>
+      <c t="s" r="M20" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c t="s" r="B21" s="8">
+        <v>51</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>52</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c t="s" r="K21" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L21" s="8">
+        <v>53</v>
+      </c>
+      <c t="s" r="M21" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c t="s" r="B22" s="8">
+        <v>54</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>21</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c t="s" r="K22" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L22" s="8">
+        <v>18</v>
+      </c>
+      <c t="s" r="M22" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c t="s" r="B23" s="8">
+        <v>55</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>56</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c t="s" r="K23" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L23" s="8">
+        <v>57</v>
+      </c>
+      <c t="s" r="M23" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c t="s" r="B24" s="8">
+        <v>58</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>11</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c t="s" r="K24" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L24" s="8">
+        <v>59</v>
+      </c>
+      <c t="s" r="M24" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c t="s" r="B25" s="8">
+        <v>60</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>56</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c t="s" r="K25" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L25" s="8">
+        <v>61</v>
+      </c>
+      <c t="s" r="M25" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c t="s" r="B26" s="8">
+        <v>62</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>63</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c t="s" r="K26" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L26" s="8">
+        <v>64</v>
+      </c>
+      <c t="s" r="M26" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c t="s" r="B27" s="8">
+        <v>65</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>66</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c t="s" r="K27" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L27" s="8">
+        <v>67</v>
+      </c>
+      <c t="s" r="M27" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c t="s" r="B28" s="8">
+        <v>68</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>52</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c t="s" r="K28" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L28" s="8">
+        <v>69</v>
+      </c>
+      <c t="s" r="M28" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c t="s" r="B29" s="8">
+        <v>70</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>27</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c t="s" r="K29" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L29" s="8">
+        <v>71</v>
+      </c>
+      <c t="s" r="M29" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c t="s" r="B30" s="8">
+        <v>72</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>73</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c t="s" r="K30" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L30" s="8">
+        <v>74</v>
+      </c>
+      <c t="s" r="M30" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c t="s" r="B31" s="8">
+        <v>75</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>52</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c t="s" r="K31" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L31" s="8">
+        <v>76</v>
+      </c>
+      <c t="s" r="M31" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c t="s" r="B32" s="8">
+        <v>77</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>27</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c t="s" r="K32" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L32" s="8">
+        <v>78</v>
+      </c>
+      <c t="s" r="M32" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c t="s" r="B33" s="8">
+        <v>79</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>21</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c t="s" r="K33" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L33" s="8">
+        <v>80</v>
+      </c>
+      <c t="s" r="M33" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c t="s" r="B34" s="8">
+        <v>81</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>39</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c t="s" r="K34" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L34" s="8">
+        <v>82</v>
+      </c>
+      <c t="s" r="M34" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c t="s" r="B35" s="8">
+        <v>83</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>52</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c t="s" r="K35" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L35" s="8">
+        <v>84</v>
+      </c>
+      <c t="s" r="M35" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c t="s" r="B36" s="8">
+        <v>85</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>86</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c t="s" r="K36" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L36" s="8">
+        <v>87</v>
+      </c>
+      <c t="s" r="M36" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c t="s" r="B37" s="8">
+        <v>89</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>39</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c t="s" r="K37" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L37" s="8">
+        <v>90</v>
+      </c>
+      <c t="s" r="M37" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c t="s" r="B38" s="8">
+        <v>91</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>52</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c t="s" r="K38" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L38" s="8">
+        <v>92</v>
+      </c>
+      <c t="s" r="M38" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c t="s" r="B39" s="8">
+        <v>93</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>94</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c t="s" r="K39" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L39" s="8">
+        <v>95</v>
+      </c>
+      <c t="s" r="M39" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c t="s" r="B40" s="8">
+        <v>96</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>27</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c t="s" r="K40" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L40" s="8">
+        <v>97</v>
+      </c>
+      <c t="s" r="M40" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c t="s" r="B41" s="8">
+        <v>98</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>14</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c t="s" r="K41" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L41" s="8">
+        <v>99</v>
+      </c>
+      <c t="s" r="M41" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c t="s" r="B42" s="8">
+        <v>100</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>56</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c t="s" r="K42" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L42" s="8">
+        <v>101</v>
+      </c>
+      <c t="s" r="M42" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c t="s" r="B43" s="8">
+        <v>102</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>21</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c t="s" r="K43" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L43" s="8">
+        <v>103</v>
+      </c>
+      <c t="s" r="M43" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c t="s" r="B44" s="8">
+        <v>104</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>105</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c t="s" r="K44" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L44" s="8">
+        <v>40</v>
+      </c>
+      <c t="s" r="M44" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c t="s" r="B45" s="8">
+        <v>107</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>39</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c t="s" r="K45" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L45" s="8">
+        <v>108</v>
+      </c>
+      <c t="s" r="M45" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c t="s" r="B46" s="8">
+        <v>109</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>52</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c t="s" r="K46" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L46" s="8">
+        <v>110</v>
+      </c>
+      <c t="s" r="M46" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c t="s" r="B47" s="8">
+        <v>111</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>14</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c t="s" r="K47" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L47" s="8">
+        <v>112</v>
+      </c>
+      <c t="s" r="M47" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c t="s" r="B48" s="8">
+        <v>113</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>114</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c t="s" r="K48" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L48" s="8">
+        <v>40</v>
+      </c>
+      <c t="s" r="M48" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c t="s" r="B49" s="8">
+        <v>115</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>14</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c t="s" r="K49" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L49" s="8">
+        <v>95</v>
+      </c>
+      <c t="s" r="M49" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c t="s" r="B50" s="8">
+        <v>116</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>117</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c t="s" r="K50" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L50" s="8">
+        <v>118</v>
+      </c>
+      <c t="s" r="M50" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c t="s" r="B51" s="8">
+        <v>119</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>11</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c t="s" r="K51" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L51" s="8">
+        <v>64</v>
+      </c>
+      <c t="s" r="M51" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c t="s" r="B52" s="8">
+        <v>120</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>21</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c t="s" r="K52" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L52" s="8">
+        <v>121</v>
+      </c>
+      <c t="s" r="M52" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c t="s" r="B53" s="8">
+        <v>122</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>11</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c t="s" r="K53" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L53" s="8">
+        <v>123</v>
+      </c>
+      <c t="s" r="M53" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c t="s" r="B54" s="8">
+        <v>124</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>14</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c t="s" r="K54" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L54" s="8">
+        <v>125</v>
+      </c>
+      <c t="s" r="M54" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c t="s" r="B55" s="8">
+        <v>126</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>127</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c t="s" r="K55" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L55" s="8">
+        <v>128</v>
+      </c>
+      <c t="s" r="M55" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c t="s" r="B56" s="8">
+        <v>130</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>39</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c t="s" r="K56" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L56" s="8">
+        <v>40</v>
+      </c>
+      <c t="s" r="M56" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c t="s" r="B57" s="8">
+        <v>131</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>14</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c t="s" r="K57" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L57" s="8">
+        <v>132</v>
+      </c>
+      <c t="s" r="M57" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c t="s" r="B58" s="8">
+        <v>133</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>14</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c t="s" r="K58" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L58" s="8">
+        <v>108</v>
+      </c>
+      <c t="s" r="M58" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c t="s" r="B59" s="8">
+        <v>134</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>14</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c t="s" r="K59" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L59" s="8">
+        <v>35</v>
+      </c>
+      <c t="s" r="M59" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c t="s" r="B60" s="8">
+        <v>135</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>11</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c t="s" r="K60" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L60" s="8">
+        <v>31</v>
+      </c>
+      <c t="s" r="M60" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c t="s" r="B61" s="8">
+        <v>136</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>52</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c t="s" r="K61" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L61" s="8">
+        <v>137</v>
+      </c>
+      <c t="s" r="M61" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c t="s" r="B62" s="8">
+        <v>138</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>14</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c t="s" r="K62" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L62" s="8">
+        <v>139</v>
+      </c>
+      <c t="s" r="M62" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c t="s" r="B63" s="8">
+        <v>140</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>14</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c t="s" r="K63" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L63" s="8">
+        <v>141</v>
+      </c>
+      <c t="s" r="M63" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c t="s" r="B64" s="8">
+        <v>142</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>143</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c t="s" r="K64" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L64" s="8">
+        <v>144</v>
+      </c>
+      <c t="s" r="M64" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c t="s" r="B65" s="8">
+        <v>145</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>52</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c t="s" r="K65" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L65" s="8">
+        <v>146</v>
+      </c>
+      <c t="s" r="M65" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c t="s" r="B66" s="8">
+        <v>147</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>14</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c t="s" r="K66" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L66" s="8">
+        <v>148</v>
+      </c>
+      <c t="s" r="M66" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c t="s" r="B67" s="8">
+        <v>149</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>11</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c t="s" r="K67" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L67" s="8">
+        <v>150</v>
+      </c>
+      <c t="s" r="M67" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c t="s" r="B68" s="8">
+        <v>151</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>39</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c t="s" r="K68" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L68" s="8">
+        <v>152</v>
+      </c>
+      <c t="s" r="M68" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c t="s" r="B69" s="8">
+        <v>153</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>88</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c t="s" r="K69" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L69" s="8">
+        <v>154</v>
+      </c>
+      <c t="s" r="M69" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c t="s" r="B70" s="8">
+        <v>155</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>14</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c t="s" r="K70" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L70" s="8">
+        <v>156</v>
+      </c>
+      <c t="s" r="M70" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c t="s" r="B71" s="8">
+        <v>157</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>14</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c t="s" r="K71" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L71" s="8">
+        <v>158</v>
+      </c>
+      <c t="s" r="M71" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c t="s" r="B72" s="8">
+        <v>159</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>39</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c t="s" r="K72" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L72" s="8">
+        <v>160</v>
+      </c>
+      <c t="s" r="M72" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c t="s" r="B73" s="8">
+        <v>161</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>94</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c t="s" r="K73" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L73" s="8">
+        <v>40</v>
+      </c>
+      <c t="s" r="M73" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c t="s" r="B74" s="8">
+        <v>162</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>56</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c t="s" r="K74" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L74" s="8">
+        <v>156</v>
+      </c>
+      <c t="s" r="M74" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c t="s" r="B75" s="8">
+        <v>163</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>14</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c t="s" r="K75" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L75" s="8">
+        <v>87</v>
+      </c>
+      <c t="s" r="M75" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c t="s" r="B76" s="8">
+        <v>164</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>14</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c t="s" r="K76" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L76" s="8">
+        <v>144</v>
+      </c>
+      <c t="s" r="M76" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c t="s" r="B77" s="8">
+        <v>165</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>166</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c t="s" r="K77" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L77" s="8">
+        <v>167</v>
+      </c>
+      <c t="s" r="M77" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c t="s" r="B78" s="8">
+        <v>168</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>21</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c t="s" r="K78" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L78" s="8">
+        <v>169</v>
+      </c>
+      <c t="s" r="M78" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c t="s" r="B79" s="8">
+        <v>170</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>52</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c t="s" r="K79" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L79" s="8">
+        <v>171</v>
+      </c>
+      <c t="s" r="M79" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c t="s" r="B80" s="8">
+        <v>172</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>52</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c t="s" r="K80" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L80" s="8">
+        <v>169</v>
+      </c>
+      <c t="s" r="M80" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c t="s" r="B81" s="8">
+        <v>173</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>174</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c t="s" r="K81" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L81" s="8">
+        <v>175</v>
+      </c>
+      <c t="s" r="M81" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c t="s" r="B82" s="8">
+        <v>176</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>52</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c t="s" r="K82" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L82" s="8">
+        <v>177</v>
+      </c>
+      <c t="s" r="M82" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c t="s" r="B83" s="8">
+        <v>178</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>52</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c t="s" r="K83" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L83" s="8">
+        <v>179</v>
+      </c>
+      <c t="s" r="M83" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c t="s" r="B84" s="8">
+        <v>180</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>14</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c t="s" r="K84" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L84" s="8">
+        <v>181</v>
+      </c>
+      <c t="s" r="M84" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c t="s" r="B85" s="8">
+        <v>182</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>27</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c t="s" r="K85" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L85" s="8">
+        <v>20</v>
+      </c>
+      <c t="s" r="M85" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c t="s" r="B86" s="8">
+        <v>183</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>21</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c t="s" r="K86" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L86" s="8">
+        <v>184</v>
+      </c>
+      <c t="s" r="M86" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c t="s" r="B87" s="8">
+        <v>185</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>94</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c t="s" r="K87" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L87" s="8">
+        <v>57</v>
+      </c>
+      <c t="s" r="M87" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c t="s" r="B88" s="8">
+        <v>186</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>73</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c t="s" r="K88" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L88" s="8">
+        <v>18</v>
+      </c>
+      <c t="s" r="M88" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c t="s" r="B89" s="8">
+        <v>187</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>11</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c t="s" r="K89" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L89" s="8">
+        <v>128</v>
+      </c>
+      <c t="s" r="M89" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c t="s" r="B90" s="8">
+        <v>188</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>52</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c t="s" r="K90" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L90" s="8">
+        <v>189</v>
+      </c>
+      <c t="s" r="M90" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c t="s" r="B91" s="8">
+        <v>190</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>52</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c t="s" r="K91" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L91" s="8">
+        <v>18</v>
+      </c>
+      <c t="s" r="M91" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c t="s" r="B92" s="8">
+        <v>191</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>21</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c t="s" r="K92" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L92" s="8">
+        <v>192</v>
+      </c>
+      <c t="s" r="M92" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c t="s" r="B93" s="8">
+        <v>193</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>14</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c t="s" r="K93" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L93" s="8">
+        <v>123</v>
+      </c>
+      <c t="s" r="M93" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c t="s" r="B94" s="8">
+        <v>194</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>14</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c t="s" r="K94" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L94" s="8">
+        <v>78</v>
+      </c>
+      <c t="s" r="M94" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c t="s" r="B95" s="8">
+        <v>195</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>11</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c t="s" r="K95" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L95" s="8">
+        <v>196</v>
+      </c>
+      <c t="s" r="M95" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c t="s" r="B96" s="8">
+        <v>197</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>21</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c t="s" r="K96" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L96" s="8">
+        <v>82</v>
+      </c>
+      <c t="s" r="M96" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c t="s" r="B97" s="8">
+        <v>198</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>14</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c t="s" r="K97" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L97" s="8">
+        <v>144</v>
+      </c>
+      <c t="s" r="M97" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c t="s" r="B98" s="8">
+        <v>199</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>11</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c t="s" r="K98" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L98" s="8">
+        <v>200</v>
+      </c>
+      <c t="s" r="M98" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c t="s" r="B99" s="8">
+        <v>201</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>52</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c t="s" r="K99" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L99" s="8">
+        <v>90</v>
+      </c>
+      <c t="s" r="M99" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c t="s" r="B100" s="8">
+        <v>202</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>203</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c t="s" r="K100" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L100" s="8">
+        <v>82</v>
+      </c>
+      <c t="s" r="M100" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c t="s" r="B101" s="8">
+        <v>204</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>52</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c t="s" r="K101" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L101" s="8">
+        <v>200</v>
+      </c>
+      <c t="s" r="M101" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c t="s" r="B102" s="8">
+        <v>205</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>14</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c t="s" r="K102" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L102" s="8">
+        <v>206</v>
+      </c>
+      <c t="s" r="M102" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c t="s" r="B103" s="8">
+        <v>207</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>52</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c t="s" r="K103" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L103" s="8">
+        <v>23</v>
+      </c>
+      <c t="s" r="M103" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c t="s" r="B104" s="8">
+        <v>208</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>56</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c t="s" r="K104" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L104" s="8">
+        <v>169</v>
+      </c>
+      <c t="s" r="M104" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c t="s" r="B105" s="8">
+        <v>209</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>45</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c t="s" r="K105" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L105" s="8">
+        <v>50</v>
+      </c>
+      <c t="s" r="M105" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c t="s" r="B106" s="8">
+        <v>210</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>21</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c t="s" r="K106" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L106" s="8">
+        <v>211</v>
+      </c>
+      <c t="s" r="M106" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c t="s" r="B107" s="8">
+        <v>212</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>52</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c t="s" r="K107" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L107" s="8">
+        <v>213</v>
+      </c>
+      <c t="s" r="M107" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c t="s" r="B108" s="8">
+        <v>214</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>14</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c t="s" r="K108" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L108" s="8">
+        <v>181</v>
+      </c>
+      <c t="s" r="M108" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c t="s" r="B109" s="8">
+        <v>215</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>52</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c t="s" r="K109" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L109" s="8">
+        <v>216</v>
+      </c>
+      <c t="s" r="M109" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c t="s" r="B110" s="8">
+        <v>217</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>14</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c t="s" r="K110" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L110" s="8">
+        <v>110</v>
+      </c>
+      <c t="s" r="M110" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c t="s" r="B111" s="8">
+        <v>218</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>52</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c t="s" r="K111" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L111" s="8">
+        <v>57</v>
+      </c>
+      <c t="s" r="M111" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c t="s" r="B112" s="8">
+        <v>219</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>27</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c t="s" r="K112" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L112" s="8">
+        <v>220</v>
+      </c>
+      <c t="s" r="M112" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c t="s" r="B113" s="8">
+        <v>221</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>56</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c t="s" r="K113" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L113" s="8">
+        <v>222</v>
+      </c>
+      <c t="s" r="M113" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c t="s" r="B114" s="8">
+        <v>223</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>27</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c t="s" r="K114" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L114" s="8">
+        <v>224</v>
+      </c>
+      <c t="s" r="M114" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c t="s" r="B115" s="8">
+        <v>225</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>39</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c t="s" r="K115" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L115" s="8">
+        <v>25</v>
+      </c>
+      <c t="s" r="M115" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c t="s" r="B116" s="8">
+        <v>226</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>52</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c t="s" r="K116" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L116" s="8">
+        <v>227</v>
+      </c>
+      <c t="s" r="M116" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c t="s" r="B117" s="8">
+        <v>228</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>21</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c t="s" r="K117" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L117" s="8">
+        <v>82</v>
+      </c>
+      <c t="s" r="M117" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c t="s" r="B118" s="8">
+        <v>229</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>27</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c t="s" r="K118" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L118" s="8">
+        <v>71</v>
+      </c>
+      <c t="s" r="M118" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c t="s" r="B119" s="8">
+        <v>230</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>94</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c t="s" r="K119" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L119" s="8">
+        <v>231</v>
+      </c>
+      <c t="s" r="M119" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c t="s" r="B120" s="8">
+        <v>232</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>14</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c t="s" r="K120" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L120" s="8">
+        <v>220</v>
+      </c>
+      <c t="s" r="M120" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c t="s" r="B121" s="8">
+        <v>233</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>234</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c t="s" r="K121" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L121" s="8">
+        <v>235</v>
+      </c>
+      <c t="s" r="M121" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c t="s" r="B122" s="8">
+        <v>236</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>52</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c t="s" r="K122" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L122" s="8">
+        <v>237</v>
+      </c>
+      <c t="s" r="M122" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c t="s" r="B123" s="8">
+        <v>238</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>239</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c t="s" r="K123" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L123" s="8">
+        <v>64</v>
+      </c>
+      <c t="s" r="M123" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c t="s" r="B124" s="8">
+        <v>240</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>52</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c t="s" r="K124" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L124" s="8">
+        <v>87</v>
+      </c>
+      <c t="s" r="M124" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c t="s" r="B125" s="8">
+        <v>241</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>27</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c t="s" r="K125" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L125" s="8">
+        <v>242</v>
+      </c>
+      <c t="s" r="M125" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c t="s" r="B126" s="8">
+        <v>243</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>52</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c t="s" r="K126" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L126" s="8">
+        <v>200</v>
+      </c>
+      <c t="s" r="M126" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c t="s" r="B127" s="8">
+        <v>244</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>245</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c t="s" r="K127" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L127" s="8">
+        <v>237</v>
+      </c>
+      <c t="s" r="M127" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c t="s" r="B128" s="8">
+        <v>246</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>127</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c t="s" r="K128" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L128" s="8">
+        <v>247</v>
+      </c>
+      <c t="s" r="M128" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c t="s" r="B129" s="8">
+        <v>248</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>14</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c t="s" r="K129" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L129" s="8">
+        <v>249</v>
+      </c>
+      <c t="s" r="M129" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c t="s" r="B130" s="8">
+        <v>250</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>21</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c t="s" r="K130" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L130" s="8">
+        <v>76</v>
+      </c>
+      <c t="s" r="M130" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c t="s" r="B131" s="8">
+        <v>251</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>21</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c t="s" r="K131" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L131" s="8">
+        <v>171</v>
+      </c>
+      <c t="s" r="M131" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c t="s" r="B132" s="8">
+        <v>252</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>52</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c t="s" r="K132" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L132" s="8">
+        <v>112</v>
+      </c>
+      <c t="s" r="M132" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c t="s" r="B133" s="8">
+        <v>253</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>52</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c t="s" r="K133" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L133" s="8">
+        <v>156</v>
+      </c>
+      <c t="s" r="M133" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c t="s" r="B134" s="8">
+        <v>254</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>27</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c t="s" r="K134" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L134" s="8">
+        <v>255</v>
+      </c>
+      <c t="s" r="M134" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c t="s" r="B135" s="8">
+        <v>256</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>21</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c t="s" r="K135" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L135" s="8">
+        <v>257</v>
+      </c>
+      <c t="s" r="M135" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c t="s" r="B136" s="8">
+        <v>258</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>143</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c t="s" r="K136" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L136" s="8">
+        <v>200</v>
+      </c>
+      <c t="s" r="M136" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c t="s" r="B137" s="8">
+        <v>259</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>14</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c t="s" r="K137" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L137" s="8">
+        <v>260</v>
+      </c>
+      <c t="s" r="M137" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c t="s" r="B138" s="8">
+        <v>261</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>11</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c t="s" r="K138" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L138" s="8">
+        <v>40</v>
+      </c>
+      <c t="s" r="M138" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c t="s" r="B139" s="8">
+        <v>262</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>52</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c t="s" r="K139" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L139" s="8">
+        <v>154</v>
+      </c>
+      <c t="s" r="M139" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c t="s" r="B140" s="8">
+        <v>263</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>264</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c t="s" r="K140" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L140" s="8">
+        <v>154</v>
+      </c>
+      <c t="s" r="M140" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c t="s" r="B141" s="8">
+        <v>265</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>39</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c t="s" r="K141" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L141" s="8">
+        <v>25</v>
+      </c>
+      <c t="s" r="M141" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c t="s" r="B142" s="8">
+        <v>266</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>267</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c t="s" r="K142" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L142" s="8">
+        <v>268</v>
+      </c>
+      <c t="s" r="M142" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c t="s" r="B143" s="8">
+        <v>269</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>143</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c t="s" r="K143" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L143" s="8">
+        <v>181</v>
+      </c>
+      <c t="s" r="M143" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c t="s" r="B144" s="8">
+        <v>270</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>52</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c t="s" r="K144" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L144" s="8">
+        <v>271</v>
+      </c>
+      <c t="s" r="M144" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c t="s" r="B145" s="8">
+        <v>272</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>39</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c t="s" r="K145" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L145" s="8">
+        <v>50</v>
+      </c>
+      <c t="s" r="M145" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c t="s" r="B146" s="8">
+        <v>273</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>39</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c t="s" r="K146" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L146" s="8">
+        <v>90</v>
+      </c>
+      <c t="s" r="M146" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c t="s" r="B147" s="8">
+        <v>274</v>
+      </c>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>88</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c t="s" r="K147" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L147" s="8">
+        <v>112</v>
+      </c>
+      <c t="s" r="M147" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c t="s" r="B148" s="8">
+        <v>275</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>52</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c t="s" r="K148" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L148" s="8">
+        <v>276</v>
+      </c>
+      <c t="s" r="M148" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c t="s" r="B149" s="8">
+        <v>277</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>14</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c t="s" r="K149" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L149" s="8">
+        <v>160</v>
+      </c>
+      <c t="s" r="M149" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="A150" s="7">
+        <v>144</v>
+      </c>
+      <c t="s" r="B150" s="8">
+        <v>278</v>
+      </c>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c t="s" r="H150" s="9">
+        <v>279</v>
+      </c>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c t="s" r="K150" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L150" s="8">
+        <v>50</v>
+      </c>
+      <c t="s" r="M150" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" customHeight="1">
+      <c r="A151" s="7">
+        <v>145</v>
+      </c>
+      <c t="s" r="B151" s="8">
+        <v>280</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c t="s" r="H151" s="9">
+        <v>14</v>
+      </c>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c t="s" r="K151" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L151" s="8">
+        <v>189</v>
+      </c>
+      <c t="s" r="M151" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" ht="25.5" customHeight="1">
+      <c r="A152" s="7">
+        <v>146</v>
+      </c>
+      <c t="s" r="B152" s="8">
+        <v>281</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c t="s" r="H152" s="9">
+        <v>52</v>
+      </c>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c t="s" r="K152" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L152" s="8">
+        <v>268</v>
+      </c>
+      <c t="s" r="M152" s="11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="153" ht="24.75" customHeight="1">
+      <c r="A153" s="7">
+        <v>147</v>
+      </c>
+      <c t="s" r="B153" s="8">
+        <v>283</v>
+      </c>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c t="s" r="H153" s="9">
+        <v>52</v>
+      </c>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c t="s" r="K153" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L153" s="8">
+        <v>276</v>
+      </c>
+      <c t="s" r="M153" s="11">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="154" ht="25.5" customHeight="1">
+      <c r="A154" s="7">
+        <v>148</v>
+      </c>
+      <c t="s" r="B154" s="8">
+        <v>285</v>
+      </c>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c t="s" r="H154" s="9">
+        <v>14</v>
+      </c>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c t="s" r="K154" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L154" s="8">
+        <v>276</v>
+      </c>
+      <c t="s" r="M154" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" ht="24.75" customHeight="1">
+      <c r="A155" s="7">
+        <v>149</v>
+      </c>
+      <c t="s" r="B155" s="8">
+        <v>286</v>
+      </c>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c t="s" r="H155" s="9">
+        <v>287</v>
+      </c>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c t="s" r="K155" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L155" s="8">
+        <v>288</v>
+      </c>
+      <c t="s" r="M155" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" ht="25.5" customHeight="1">
+      <c r="A156" s="7">
+        <v>150</v>
+      </c>
+      <c t="s" r="B156" s="8">
+        <v>289</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c t="s" r="H156" s="9">
+        <v>14</v>
+      </c>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c t="s" r="K156" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L156" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M156" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" ht="25.5" customHeight="1">
+      <c r="A157" s="7">
+        <v>151</v>
+      </c>
+      <c t="s" r="B157" s="8">
+        <v>290</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c t="s" r="H157" s="9">
+        <v>291</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c t="s" r="K157" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L157" s="8">
+        <v>112</v>
+      </c>
+      <c t="s" r="M157" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" ht="24.75" customHeight="1">
+      <c r="A158" s="7">
+        <v>152</v>
+      </c>
+      <c t="s" r="B158" s="8">
+        <v>292</v>
+      </c>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c t="s" r="H158" s="9">
+        <v>279</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c t="s" r="K158" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L158" s="8">
+        <v>293</v>
+      </c>
+      <c t="s" r="M158" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" ht="25.5" customHeight="1">
+      <c r="A159" s="7">
+        <v>153</v>
+      </c>
+      <c t="s" r="B159" s="8">
+        <v>294</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c t="s" r="H159" s="9">
+        <v>45</v>
+      </c>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c t="s" r="K159" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L159" s="8">
+        <v>57</v>
+      </c>
+      <c t="s" r="M159" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" ht="24.75" customHeight="1">
+      <c r="A160" s="7">
+        <v>154</v>
+      </c>
+      <c t="s" r="B160" s="8">
+        <v>295</v>
+      </c>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c t="s" r="H160" s="9">
+        <v>52</v>
+      </c>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c t="s" r="K160" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L160" s="8">
+        <v>296</v>
+      </c>
+      <c t="s" r="M160" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" ht="25.5" customHeight="1">
+      <c r="A161" s="7">
+        <v>155</v>
+      </c>
+      <c t="s" r="B161" s="8">
+        <v>297</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c t="s" r="H161" s="9">
+        <v>291</v>
+      </c>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c t="s" r="K161" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L161" s="8">
+        <v>50</v>
+      </c>
+      <c t="s" r="M161" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="162" ht="25.5" customHeight="1">
+      <c r="A162" s="7">
+        <v>156</v>
+      </c>
+      <c t="s" r="B162" s="8">
+        <v>298</v>
+      </c>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c t="s" r="H162" s="9">
+        <v>86</v>
+      </c>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c t="s" r="K162" s="10">
+        <v>17</v>
+      </c>
+      <c t="s" r="L162" s="8">
+        <v>160</v>
+      </c>
+      <c t="s" r="M162" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" ht="16.5" customHeight="1">
+      <c t="s" r="A163" s="12">
+        <v>299</v>
+      </c>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c t="s" r="F163" s="13">
+        <v>300</v>
+      </c>
+      <c r="G163" s="13"/>
+      <c r="H163" s="14"/>
+      <c t="s" r="I163" s="15">
+        <v>301</v>
+      </c>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="322">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="I163:M163"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Rrt_Nawaqis_2025-05-24_00-00.xlsx
+++ b/Rrt_Nawaqis_2025-05-24_00-00.xlsx
@@ -54,372 +54,6 @@
   </si>
   <si>
     <t>1:0</t>
-  </si>
-  <si>
-    <t>ALWAYS ماكس طويل</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>AMARYL 1MG 30 TAB</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AMARYL 4 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>AMIPRIDE 50MG 30 TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>ANTINAL 200MG 24 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>BABY RELIEF 12.5MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>BEPRA 20MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>154.50</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>CALCIMATE 500 MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>CALCISOME-D 60 H.G. CAPS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>CARVID 6.25MG 30TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>CETAL 1000MG 15 TABS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>CONCOR 10MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>CONSTIPRIDE 2 MG 28 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>185.75</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLOC 20MG 14  GASTRO RESISTANT TABS</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>DAFLON 500MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>D-DEP 10000IU 30CAPS</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>DESA 2.5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>DEXAGLOBE 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>DICYNONE 250MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>DOXIUM 500MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
     <t>Saturday, 24 May, 2025 11:01 PM</t>
@@ -1022,7 +656,7 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c t="s" r="B7" s="8">
         <v>10</v>
@@ -1049,10 +683,10 @@
     </row>
     <row r="8" ht="24.75" customHeight="1">
       <c r="A8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c t="s" r="B8" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1060,15 +694,15 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c t="s" r="K8" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c t="s" r="L8" s="8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c t="s" r="M8" s="11">
         <v>14</v>
@@ -1076,10 +710,10 @@
     </row>
     <row r="9" ht="25.5" customHeight="1">
       <c r="A9" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c t="s" r="B9" s="8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1087,7 +721,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1095,18 +729,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L9" s="8">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c t="s" r="M9" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
       <c r="A10" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c t="s" r="B10" s="8">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1114,7 +748,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1122,7 +756,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L10" s="8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c t="s" r="M10" s="11">
         <v>14</v>
@@ -1130,10 +764,10 @@
     </row>
     <row r="11" ht="25.5" customHeight="1">
       <c r="A11" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c t="s" r="B11" s="8">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1141,7 +775,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1149,18 +783,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L11" s="8">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c t="s" r="M11" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
       <c r="A12" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c t="s" r="B12" s="8">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1168,7 +802,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1176,18 +810,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L12" s="8">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c t="s" r="M12" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
       <c r="A13" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c t="s" r="B13" s="8">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1195,7 +829,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1203,18 +837,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L13" s="8">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c t="s" r="M13" s="11">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
       <c r="A14" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c t="s" r="B14" s="8">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1222,7 +856,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1230,18 +864,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L14" s="8">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c t="s" r="M14" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
       <c r="A15" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c t="s" r="B15" s="8">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1249,7 +883,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1257,18 +891,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L15" s="8">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c t="s" r="M15" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c t="s" r="B16" s="8">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1276,7 +910,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1284,7 +918,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L16" s="8">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c t="s" r="M16" s="11">
         <v>14</v>
@@ -1292,10 +926,10 @@
     </row>
     <row r="17" ht="25.5" customHeight="1">
       <c r="A17" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c t="s" r="B17" s="8">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1303,7 +937,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1311,18 +945,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L17" s="8">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c t="s" r="M17" s="11">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
       <c r="A18" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c t="s" r="B18" s="8">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1330,7 +964,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1338,7 +972,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L18" s="8">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c t="s" r="M18" s="11">
         <v>14</v>
@@ -1346,10 +980,10 @@
     </row>
     <row r="19" ht="25.5" customHeight="1">
       <c r="A19" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c t="s" r="B19" s="8">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1357,7 +991,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1365,7 +999,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L19" s="8">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c t="s" r="M19" s="11">
         <v>14</v>
@@ -1373,10 +1007,10 @@
     </row>
     <row r="20" ht="24.75" customHeight="1">
       <c r="A20" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c t="s" r="B20" s="8">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1384,7 +1018,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1392,7 +1026,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L20" s="8">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c t="s" r="M20" s="11">
         <v>14</v>
@@ -1400,10 +1034,10 @@
     </row>
     <row r="21" ht="25.5" customHeight="1">
       <c r="A21" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c t="s" r="B21" s="8">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1411,7 +1045,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1419,7 +1053,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L21" s="8">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c t="s" r="M21" s="11">
         <v>14</v>
@@ -1427,10 +1061,10 @@
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c t="s" r="B22" s="8">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1438,7 +1072,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1446,7 +1080,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L22" s="8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c t="s" r="M22" s="11">
         <v>14</v>
@@ -1454,10 +1088,10 @@
     </row>
     <row r="23" ht="24.75" customHeight="1">
       <c r="A23" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c t="s" r="B23" s="8">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1465,26 +1099,26 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c t="s" r="K23" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c t="s" r="L23" s="8">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c t="s" r="M23" s="11">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
       <c r="A24" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c t="s" r="B24" s="8">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1500,18 +1134,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L24" s="8">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c t="s" r="M24" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
       <c r="A25" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c t="s" r="B25" s="8">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1519,7 +1153,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1527,18 +1161,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L25" s="8">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c t="s" r="M25" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
       <c r="A26" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c t="s" r="B26" s="8">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1546,7 +1180,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1554,18 +1188,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L26" s="8">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c t="s" r="M26" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
       <c r="A27" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c t="s" r="B27" s="8">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1573,15 +1207,15 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c t="s" r="K27" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c t="s" r="L27" s="8">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c t="s" r="M27" s="11">
         <v>14</v>
@@ -1589,10 +1223,10 @@
     </row>
     <row r="28" ht="24.75" customHeight="1">
       <c r="A28" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c t="s" r="B28" s="8">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1600,7 +1234,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1608,7 +1242,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L28" s="8">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c t="s" r="M28" s="11">
         <v>14</v>
@@ -1616,10 +1250,10 @@
     </row>
     <row r="29" ht="25.5" customHeight="1">
       <c r="A29" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="B29" s="8">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1627,7 +1261,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1635,18 +1269,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L29" s="8">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c t="s" r="M29" s="11">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
       <c r="A30" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="B30" s="8">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1654,7 +1288,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1662,18 +1296,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L30" s="8">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c t="s" r="M30" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
       <c r="A31" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c t="s" r="B31" s="8">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1681,7 +1315,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1689,7 +1323,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L31" s="8">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c t="s" r="M31" s="11">
         <v>14</v>
@@ -1697,10 +1331,10 @@
     </row>
     <row r="32" ht="25.5" customHeight="1">
       <c r="A32" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="B32" s="8">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1708,7 +1342,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1716,18 +1350,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L32" s="8">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c t="s" r="M32" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
       <c r="A33" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="B33" s="8">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1735,7 +1369,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1743,18 +1377,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L33" s="8">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c t="s" r="M33" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="A34" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="B34" s="8">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1762,7 +1396,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1770,7 +1404,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L34" s="8">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c t="s" r="M34" s="11">
         <v>14</v>
@@ -1778,10 +1412,10 @@
     </row>
     <row r="35" ht="24.75" customHeight="1">
       <c r="A35" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="B35" s="8">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1789,7 +1423,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1797,7 +1431,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L35" s="8">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c t="s" r="M35" s="11">
         <v>14</v>
@@ -1805,10 +1439,10 @@
     </row>
     <row r="36" ht="25.5" customHeight="1">
       <c r="A36" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="B36" s="8">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1816,7 +1450,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1824,18 +1458,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L36" s="8">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c t="s" r="M36" s="11">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
       <c r="A37" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="B37" s="8">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1843,7 +1477,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1851,18 +1485,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L37" s="8">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c t="s" r="M37" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
       <c r="A38" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="B38" s="8">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1870,7 +1504,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1878,18 +1512,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L38" s="8">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c t="s" r="M38" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
       <c r="A39" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="B39" s="8">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1897,7 +1531,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -1905,7 +1539,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L39" s="8">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c t="s" r="M39" s="11">
         <v>14</v>
@@ -1913,10 +1547,10 @@
     </row>
     <row r="40" ht="24.75" customHeight="1">
       <c r="A40" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="B40" s="8">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1924,7 +1558,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1932,18 +1566,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L40" s="8">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c t="s" r="M40" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
       <c r="A41" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="B41" s="8">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1951,7 +1585,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1959,18 +1593,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L41" s="8">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c t="s" r="M41" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
       <c r="A42" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="B42" s="8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1978,7 +1612,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1986,18 +1620,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L42" s="8">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c t="s" r="M42" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
       <c r="A43" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="B43" s="8">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2005,26 +1639,26 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c t="s" r="K43" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c t="s" r="L43" s="8">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c t="s" r="M43" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
       <c r="A44" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="B44" s="8">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2032,7 +1666,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2040,18 +1674,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L44" s="8">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c t="s" r="M44" s="11">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
       <c r="A45" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="B45" s="8">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2059,7 +1693,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2067,7 +1701,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L45" s="8">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c t="s" r="M45" s="11">
         <v>14</v>
@@ -2075,10 +1709,10 @@
     </row>
     <row r="46" ht="25.5" customHeight="1">
       <c r="A46" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="B46" s="8">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2086,7 +1720,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2094,7 +1728,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L46" s="8">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c t="s" r="M46" s="11">
         <v>14</v>
@@ -2102,10 +1736,10 @@
     </row>
     <row r="47" ht="25.5" customHeight="1">
       <c r="A47" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="B47" s="8">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2113,7 +1747,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2121,7 +1755,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L47" s="8">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c t="s" r="M47" s="11">
         <v>14</v>
@@ -2129,10 +1763,10 @@
     </row>
     <row r="48" ht="24.75" customHeight="1">
       <c r="A48" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="B48" s="8">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2140,7 +1774,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2148,18 +1782,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L48" s="8">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c t="s" r="M48" s="11">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
       <c r="A49" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="B49" s="8">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2167,7 +1801,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2175,7 +1809,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L49" s="8">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c t="s" r="M49" s="11">
         <v>14</v>
@@ -2183,10 +1817,10 @@
     </row>
     <row r="50" ht="24.75" customHeight="1">
       <c r="A50" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="B50" s="8">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2194,7 +1828,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2202,7 +1836,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L50" s="8">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c t="s" r="M50" s="11">
         <v>14</v>
@@ -2210,10 +1844,10 @@
     </row>
     <row r="51" ht="25.5" customHeight="1">
       <c r="A51" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="B51" s="8">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2229,18 +1863,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L51" s="8">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c t="s" r="M51" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
       <c r="A52" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="B52" s="8">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2248,7 +1882,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2256,7 +1890,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L52" s="8">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c t="s" r="M52" s="11">
         <v>14</v>
@@ -2264,10 +1898,10 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="A53" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="B53" s="8">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2283,7 +1917,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L53" s="8">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c t="s" r="M53" s="11">
         <v>14</v>
@@ -2291,10 +1925,10 @@
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="A54" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="B54" s="8">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2302,7 +1936,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2310,18 +1944,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L54" s="8">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c t="s" r="M54" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
       <c r="A55" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="B55" s="8">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -2329,7 +1963,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2337,18 +1971,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L55" s="8">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c t="s" r="M55" s="11">
-        <v>129</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
       <c r="A56" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="B56" s="8">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -2356,7 +1990,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2364,7 +1998,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L56" s="8">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c t="s" r="M56" s="11">
         <v>14</v>
@@ -2372,10 +2006,10 @@
     </row>
     <row r="57" ht="25.5" customHeight="1">
       <c r="A57" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="B57" s="8">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -2383,7 +2017,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2391,18 +2025,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L57" s="8">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c t="s" r="M57" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
       <c r="A58" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="B58" s="8">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2410,7 +2044,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2418,7 +2052,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L58" s="8">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c t="s" r="M58" s="11">
         <v>14</v>
@@ -2426,10 +2060,10 @@
     </row>
     <row r="59" ht="25.5" customHeight="1">
       <c r="A59" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="B59" s="8">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2437,7 +2071,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2445,18 +2079,18 @@
         <v>12</v>
       </c>
       <c t="s" r="L59" s="8">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c t="s" r="M59" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c t="s" r="A60" s="7">
-        <v>135</v>
+      <c r="A60" s="7">
+        <v>56</v>
       </c>
       <c t="s" r="B60" s="8">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -2472,35 +2106,2789 @@
         <v>12</v>
       </c>
       <c t="s" r="L60" s="8">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c t="s" r="M60" s="11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>57</v>
+      </c>
+      <c t="s" r="B61" s="8">
+        <v>10</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>11</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c t="s" r="K61" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L61" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M61" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>58</v>
+      </c>
+      <c t="s" r="B62" s="8">
+        <v>10</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>11</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c t="s" r="K62" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L62" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M62" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>59</v>
+      </c>
+      <c t="s" r="B63" s="8">
+        <v>10</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>11</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c t="s" r="K63" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L63" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M63" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>60</v>
+      </c>
+      <c t="s" r="B64" s="8">
+        <v>10</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>11</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c t="s" r="K64" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L64" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M64" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>61</v>
+      </c>
+      <c t="s" r="B65" s="8">
+        <v>10</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>11</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c t="s" r="K65" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L65" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M65" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>62</v>
+      </c>
+      <c t="s" r="B66" s="8">
+        <v>10</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>11</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c t="s" r="K66" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L66" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M66" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>63</v>
+      </c>
+      <c t="s" r="B67" s="8">
+        <v>10</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>11</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c t="s" r="K67" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L67" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M67" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>64</v>
+      </c>
+      <c t="s" r="B68" s="8">
+        <v>10</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>11</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c t="s" r="K68" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L68" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M68" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>65</v>
+      </c>
+      <c t="s" r="B69" s="8">
+        <v>10</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>11</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c t="s" r="K69" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L69" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M69" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>66</v>
+      </c>
+      <c t="s" r="B70" s="8">
+        <v>10</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>11</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c t="s" r="K70" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L70" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M70" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>67</v>
+      </c>
+      <c t="s" r="B71" s="8">
+        <v>10</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>11</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c t="s" r="K71" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L71" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M71" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>68</v>
+      </c>
+      <c t="s" r="B72" s="8">
+        <v>10</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>11</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c t="s" r="K72" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L72" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M72" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>69</v>
+      </c>
+      <c t="s" r="B73" s="8">
+        <v>10</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>11</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c t="s" r="K73" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L73" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M73" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>70</v>
+      </c>
+      <c t="s" r="B74" s="8">
+        <v>10</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>11</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c t="s" r="K74" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L74" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M74" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>71</v>
+      </c>
+      <c t="s" r="B75" s="8">
+        <v>10</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>11</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c t="s" r="K75" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L75" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M75" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>72</v>
+      </c>
+      <c t="s" r="B76" s="8">
+        <v>10</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>11</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c t="s" r="K76" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L76" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M76" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>73</v>
+      </c>
+      <c t="s" r="B77" s="8">
+        <v>10</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>11</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c t="s" r="K77" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L77" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M77" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>74</v>
+      </c>
+      <c t="s" r="B78" s="8">
+        <v>10</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>11</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c t="s" r="K78" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L78" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M78" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>75</v>
+      </c>
+      <c t="s" r="B79" s="8">
+        <v>10</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>11</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c t="s" r="K79" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L79" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M79" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>76</v>
+      </c>
+      <c t="s" r="B80" s="8">
+        <v>10</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>11</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c t="s" r="K80" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L80" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M80" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>77</v>
+      </c>
+      <c t="s" r="B81" s="8">
+        <v>10</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>11</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c t="s" r="K81" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L81" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M81" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>78</v>
+      </c>
+      <c t="s" r="B82" s="8">
+        <v>10</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>11</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c t="s" r="K82" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L82" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M82" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>79</v>
+      </c>
+      <c t="s" r="B83" s="8">
+        <v>10</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>11</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c t="s" r="K83" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L83" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M83" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>80</v>
+      </c>
+      <c t="s" r="B84" s="8">
+        <v>10</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>11</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c t="s" r="K84" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L84" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M84" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>81</v>
+      </c>
+      <c t="s" r="B85" s="8">
+        <v>10</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>11</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c t="s" r="K85" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L85" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M85" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>82</v>
+      </c>
+      <c t="s" r="B86" s="8">
+        <v>10</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>11</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c t="s" r="K86" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L86" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M86" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>83</v>
+      </c>
+      <c t="s" r="B87" s="8">
+        <v>10</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>11</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c t="s" r="K87" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L87" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M87" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>84</v>
+      </c>
+      <c t="s" r="B88" s="8">
+        <v>10</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>11</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c t="s" r="K88" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L88" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M88" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>85</v>
+      </c>
+      <c t="s" r="B89" s="8">
+        <v>10</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>11</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c t="s" r="K89" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L89" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M89" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>86</v>
+      </c>
+      <c t="s" r="B90" s="8">
+        <v>10</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>11</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c t="s" r="K90" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L90" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M90" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>87</v>
+      </c>
+      <c t="s" r="B91" s="8">
+        <v>10</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>11</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c t="s" r="K91" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L91" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M91" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>88</v>
+      </c>
+      <c t="s" r="B92" s="8">
+        <v>10</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>11</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c t="s" r="K92" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L92" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M92" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>89</v>
+      </c>
+      <c t="s" r="B93" s="8">
+        <v>10</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>11</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c t="s" r="K93" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L93" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M93" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>90</v>
+      </c>
+      <c t="s" r="B94" s="8">
+        <v>10</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>11</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c t="s" r="K94" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L94" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M94" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>91</v>
+      </c>
+      <c t="s" r="B95" s="8">
+        <v>10</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>11</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c t="s" r="K95" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L95" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M95" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>92</v>
+      </c>
+      <c t="s" r="B96" s="8">
+        <v>10</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>11</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c t="s" r="K96" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L96" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M96" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>93</v>
+      </c>
+      <c t="s" r="B97" s="8">
+        <v>10</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>11</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c t="s" r="K97" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L97" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M97" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>94</v>
+      </c>
+      <c t="s" r="B98" s="8">
+        <v>10</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>11</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c t="s" r="K98" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L98" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M98" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>95</v>
+      </c>
+      <c t="s" r="B99" s="8">
+        <v>10</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>11</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c t="s" r="K99" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L99" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M99" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>96</v>
+      </c>
+      <c t="s" r="B100" s="8">
+        <v>10</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>11</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c t="s" r="K100" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L100" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M100" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>97</v>
+      </c>
+      <c t="s" r="B101" s="8">
+        <v>10</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>11</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c t="s" r="K101" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L101" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M101" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>98</v>
+      </c>
+      <c t="s" r="B102" s="8">
+        <v>10</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>11</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c t="s" r="K102" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L102" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M102" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>99</v>
+      </c>
+      <c t="s" r="B103" s="8">
+        <v>10</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>11</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c t="s" r="K103" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L103" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M103" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>100</v>
+      </c>
+      <c t="s" r="B104" s="8">
+        <v>10</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>11</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c t="s" r="K104" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L104" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M104" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>101</v>
+      </c>
+      <c t="s" r="B105" s="8">
+        <v>10</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>11</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c t="s" r="K105" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L105" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M105" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>102</v>
+      </c>
+      <c t="s" r="B106" s="8">
+        <v>10</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>11</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c t="s" r="K106" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L106" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M106" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>103</v>
+      </c>
+      <c t="s" r="B107" s="8">
+        <v>10</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>11</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c t="s" r="K107" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L107" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M107" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>104</v>
+      </c>
+      <c t="s" r="B108" s="8">
+        <v>10</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>11</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c t="s" r="K108" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L108" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M108" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>105</v>
+      </c>
+      <c t="s" r="B109" s="8">
+        <v>10</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>11</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c t="s" r="K109" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L109" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M109" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>106</v>
+      </c>
+      <c t="s" r="B110" s="8">
+        <v>10</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>11</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c t="s" r="K110" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L110" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M110" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>107</v>
+      </c>
+      <c t="s" r="B111" s="8">
+        <v>10</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>11</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c t="s" r="K111" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L111" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M111" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>108</v>
+      </c>
+      <c t="s" r="B112" s="8">
+        <v>10</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>11</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c t="s" r="K112" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L112" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M112" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>109</v>
+      </c>
+      <c t="s" r="B113" s="8">
+        <v>10</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>11</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c t="s" r="K113" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L113" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M113" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>110</v>
+      </c>
+      <c t="s" r="B114" s="8">
+        <v>10</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>11</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c t="s" r="K114" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L114" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M114" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>111</v>
+      </c>
+      <c t="s" r="B115" s="8">
+        <v>10</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>11</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c t="s" r="K115" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L115" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M115" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>112</v>
+      </c>
+      <c t="s" r="B116" s="8">
+        <v>10</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>11</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c t="s" r="K116" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L116" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M116" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>113</v>
+      </c>
+      <c t="s" r="B117" s="8">
+        <v>10</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>11</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c t="s" r="K117" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L117" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M117" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>114</v>
+      </c>
+      <c t="s" r="B118" s="8">
+        <v>10</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>11</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c t="s" r="K118" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L118" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M118" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>115</v>
+      </c>
+      <c t="s" r="B119" s="8">
+        <v>10</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>11</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c t="s" r="K119" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L119" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M119" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>116</v>
+      </c>
+      <c t="s" r="B120" s="8">
+        <v>10</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>11</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c t="s" r="K120" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L120" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M120" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>117</v>
+      </c>
+      <c t="s" r="B121" s="8">
+        <v>10</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>11</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c t="s" r="K121" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L121" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M121" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>118</v>
+      </c>
+      <c t="s" r="B122" s="8">
+        <v>10</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>11</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c t="s" r="K122" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L122" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M122" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>119</v>
+      </c>
+      <c t="s" r="B123" s="8">
+        <v>10</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>11</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c t="s" r="K123" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L123" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M123" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>120</v>
+      </c>
+      <c t="s" r="B124" s="8">
+        <v>10</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>11</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c t="s" r="K124" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L124" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M124" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>121</v>
+      </c>
+      <c t="s" r="B125" s="8">
+        <v>10</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>11</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c t="s" r="K125" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L125" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M125" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>122</v>
+      </c>
+      <c t="s" r="B126" s="8">
+        <v>10</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>11</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c t="s" r="K126" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L126" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M126" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>123</v>
+      </c>
+      <c t="s" r="B127" s="8">
+        <v>10</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>11</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c t="s" r="K127" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L127" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M127" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>124</v>
+      </c>
+      <c t="s" r="B128" s="8">
+        <v>10</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>11</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c t="s" r="K128" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L128" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M128" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>125</v>
+      </c>
+      <c t="s" r="B129" s="8">
+        <v>10</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>11</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c t="s" r="K129" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L129" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M129" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>126</v>
+      </c>
+      <c t="s" r="B130" s="8">
+        <v>10</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>11</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c t="s" r="K130" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L130" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M130" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>127</v>
+      </c>
+      <c t="s" r="B131" s="8">
+        <v>10</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>11</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c t="s" r="K131" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L131" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M131" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>128</v>
+      </c>
+      <c t="s" r="B132" s="8">
+        <v>10</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>11</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c t="s" r="K132" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L132" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M132" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>129</v>
+      </c>
+      <c t="s" r="B133" s="8">
+        <v>10</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>11</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c t="s" r="K133" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L133" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M133" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>130</v>
+      </c>
+      <c t="s" r="B134" s="8">
+        <v>10</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>11</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c t="s" r="K134" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L134" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M134" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>131</v>
+      </c>
+      <c t="s" r="B135" s="8">
+        <v>10</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>11</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c t="s" r="K135" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L135" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M135" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>132</v>
+      </c>
+      <c t="s" r="B136" s="8">
+        <v>10</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>11</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c t="s" r="K136" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L136" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M136" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>133</v>
+      </c>
+      <c t="s" r="B137" s="8">
+        <v>10</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>11</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c t="s" r="K137" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L137" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M137" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>134</v>
+      </c>
+      <c t="s" r="B138" s="8">
+        <v>10</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>11</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c t="s" r="K138" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L138" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M138" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>135</v>
+      </c>
+      <c t="s" r="B139" s="8">
+        <v>10</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>11</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c t="s" r="K139" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L139" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M139" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>136</v>
+      </c>
+      <c t="s" r="B140" s="8">
+        <v>10</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>11</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c t="s" r="K140" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L140" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M140" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
         <v>137</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c t="s" r="F61" s="13">
+      <c t="s" r="B141" s="8">
+        <v>10</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>11</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c t="s" r="K141" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L141" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M141" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
         <v>138</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="14"/>
-      <c t="s" r="I61" s="15">
+      <c t="s" r="B142" s="8">
+        <v>10</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>11</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c t="s" r="K142" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L142" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M142" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
         <v>139</v>
       </c>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
+      <c t="s" r="B143" s="8">
+        <v>10</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>11</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c t="s" r="K143" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L143" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M143" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>140</v>
+      </c>
+      <c t="s" r="B144" s="8">
+        <v>10</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>11</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c t="s" r="K144" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L144" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M144" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>141</v>
+      </c>
+      <c t="s" r="B145" s="8">
+        <v>10</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>11</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c t="s" r="K145" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L145" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M145" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>142</v>
+      </c>
+      <c t="s" r="B146" s="8">
+        <v>10</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>11</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c t="s" r="K146" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L146" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M146" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>143</v>
+      </c>
+      <c t="s" r="B147" s="8">
+        <v>10</v>
+      </c>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>11</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c t="s" r="K147" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L147" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M147" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>144</v>
+      </c>
+      <c t="s" r="B148" s="8">
+        <v>10</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>11</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c t="s" r="K148" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L148" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M148" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>145</v>
+      </c>
+      <c t="s" r="B149" s="8">
+        <v>10</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>11</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c t="s" r="K149" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L149" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M149" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="A150" s="7">
+        <v>146</v>
+      </c>
+      <c t="s" r="B150" s="8">
+        <v>10</v>
+      </c>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c t="s" r="H150" s="9">
+        <v>11</v>
+      </c>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c t="s" r="K150" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L150" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M150" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" customHeight="1">
+      <c r="A151" s="7">
+        <v>147</v>
+      </c>
+      <c t="s" r="B151" s="8">
+        <v>10</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c t="s" r="H151" s="9">
+        <v>11</v>
+      </c>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c t="s" r="K151" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L151" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M151" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" ht="25.5" customHeight="1">
+      <c r="A152" s="7">
+        <v>148</v>
+      </c>
+      <c t="s" r="B152" s="8">
+        <v>10</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c t="s" r="H152" s="9">
+        <v>11</v>
+      </c>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c t="s" r="K152" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L152" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M152" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" ht="24.75" customHeight="1">
+      <c r="A153" s="7">
+        <v>149</v>
+      </c>
+      <c t="s" r="B153" s="8">
+        <v>10</v>
+      </c>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c t="s" r="H153" s="9">
+        <v>11</v>
+      </c>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c t="s" r="K153" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L153" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M153" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" ht="25.5" customHeight="1">
+      <c r="A154" s="7">
+        <v>150</v>
+      </c>
+      <c t="s" r="B154" s="8">
+        <v>10</v>
+      </c>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c t="s" r="H154" s="9">
+        <v>11</v>
+      </c>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c t="s" r="K154" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L154" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M154" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" ht="24.75" customHeight="1">
+      <c r="A155" s="7">
+        <v>151</v>
+      </c>
+      <c t="s" r="B155" s="8">
+        <v>10</v>
+      </c>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c t="s" r="H155" s="9">
+        <v>11</v>
+      </c>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c t="s" r="K155" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L155" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M155" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" ht="25.5" customHeight="1">
+      <c r="A156" s="7">
+        <v>152</v>
+      </c>
+      <c t="s" r="B156" s="8">
+        <v>10</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c t="s" r="H156" s="9">
+        <v>11</v>
+      </c>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c t="s" r="K156" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L156" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M156" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" ht="25.5" customHeight="1">
+      <c r="A157" s="7">
+        <v>153</v>
+      </c>
+      <c t="s" r="B157" s="8">
+        <v>10</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c t="s" r="H157" s="9">
+        <v>11</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c t="s" r="K157" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L157" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M157" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" ht="24.75" customHeight="1">
+      <c r="A158" s="7">
+        <v>154</v>
+      </c>
+      <c t="s" r="B158" s="8">
+        <v>10</v>
+      </c>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c t="s" r="H158" s="9">
+        <v>11</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c t="s" r="K158" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L158" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M158" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" ht="25.5" customHeight="1">
+      <c r="A159" s="7">
+        <v>155</v>
+      </c>
+      <c t="s" r="B159" s="8">
+        <v>10</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c t="s" r="H159" s="9">
+        <v>11</v>
+      </c>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c t="s" r="K159" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L159" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M159" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" ht="24.75" customHeight="1">
+      <c r="A160" s="7">
+        <v>156</v>
+      </c>
+      <c t="s" r="B160" s="8">
+        <v>10</v>
+      </c>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c t="s" r="H160" s="9">
+        <v>11</v>
+      </c>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c t="s" r="K160" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L160" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M160" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" ht="25.5" customHeight="1">
+      <c r="A161" s="7">
+        <v>157</v>
+      </c>
+      <c t="s" r="B161" s="8">
+        <v>10</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c t="s" r="H161" s="9">
+        <v>11</v>
+      </c>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c t="s" r="K161" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L161" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M161" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" ht="25.5" customHeight="1">
+      <c r="A162" s="7">
+        <v>158</v>
+      </c>
+      <c t="s" r="B162" s="8">
+        <v>10</v>
+      </c>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c t="s" r="H162" s="9">
+        <v>11</v>
+      </c>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c t="s" r="K162" s="10">
+        <v>12</v>
+      </c>
+      <c t="s" r="L162" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M162" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" ht="16.5" customHeight="1">
+      <c t="s" r="A163" s="12">
+        <v>15</v>
+      </c>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c t="s" r="F163" s="13">
+        <v>16</v>
+      </c>
+      <c r="G163" s="13"/>
+      <c r="H163" s="14"/>
+      <c t="s" r="I163" s="15">
+        <v>17</v>
+      </c>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
+  <mergeCells count="322">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -2616,9 +5004,213 @@
     <mergeCell ref="H59:J59"/>
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="I163:M163"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
